--- a/public/excel_templates/master_templates/vendor_template.xlsx
+++ b/public/excel_templates/master_templates/vendor_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\master_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5494ED-9C57-439E-BADD-38DE7BF7AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6235C134-227B-4F7F-80BB-C7BF14C0C3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B499E04E-AC35-4A7D-8DF7-31AE5A8F1B29}"/>
+    <workbookView xWindow="7932" yWindow="1752" windowWidth="14724" windowHeight="8880" xr2:uid="{B499E04E-AC35-4A7D-8DF7-31AE5A8F1B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>vendor_code</t>
   </si>
   <si>
     <t>location</t>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90F2B3E-EC7B-4BBF-9FBB-6B09D1189B71}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +440,7 @@
     <col min="7" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,9 +458,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
